--- a/medicine/Enfance/Le_Voyageur_de_l'au-delà/Le_Voyageur_de_l'au-delà.xlsx
+++ b/medicine/Enfance/Le_Voyageur_de_l'au-delà/Le_Voyageur_de_l'au-delà.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Voyageur_de_l%27au-del%C3%A0</t>
+          <t>Le_Voyageur_de_l'au-delà</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Voyageur de l'au-delà est le deuxième roman de la série Les Évadés du temps écrite par Philippe Ébly. Ce roman est paru pour la première fois en 1978 chez Hachette dans la collection Bibliothèque verte.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Voyageur_de_l%27au-del%C3%A0</t>
+          <t>Le_Voyageur_de_l'au-delà</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thierry, Didier et Kouroun (resté avec eux depuis qu'il a quitté le pays de Gnanéom dans l'aventure relatée dans Les Trois Portes) parcourent les Cévennes à pied.
 Dans un petit bistrot, ils font la connaissance de Frédéric, le jeune tenancier, qui les manipule adroitement pour les inciter à visiter un lieu nommé "le ravin des Oubrets".
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Voyageur_de_l%27au-del%C3%A0</t>
+          <t>Le_Voyageur_de_l'au-delà</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1978 : Hachette, coll. : Bibliothèque verte, cartonné. Illustrations de Claude Lacroix. 185 p.  (ISBN 2-01-005463-6)
 1983 : Hachette, coll. : Bibliothèque verte, cartonné, série hachurée. Illustrations d'Arias Crespo (couverture). 185 p.  (EAN 9782010054631)
